--- a/Engineering Optimization Model/Output/Results.xlsx
+++ b/Engineering Optimization Model/Output/Results.xlsx
@@ -11,6 +11,59 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Initial guess for k</t>
+  </si>
+  <si>
+    <t>Initial guess for n</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Sum of residuals</t>
+  </si>
+  <si>
+    <t>Relative error</t>
+  </si>
+  <si>
+    <t>Minimum C(t=10h)</t>
+  </si>
+  <si>
+    <t>Optimum C(t=10h)</t>
+  </si>
+  <si>
+    <t>Maximum C(t=10h)</t>
+  </si>
+  <si>
+    <t>Minimum C(t=24h)</t>
+  </si>
+  <si>
+    <t>Optimum C(t=24h)</t>
+  </si>
+  <si>
+    <t>Maximum C(t=24h)</t>
+  </si>
+  <si>
+    <t>90% Training Set</t>
+  </si>
+  <si>
+    <t>10% Test Set</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,8 +97,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,573 +406,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:T11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0.22251895669397226</v>
+      </c>
       <c r="C2">
-        <v>0.1787179201439211</v>
+        <v>0.62659532717497279</v>
       </c>
       <c r="D2">
-        <v>0.9224835534318373</v>
+        <v>7.8048401034668202E-2</v>
       </c>
       <c r="E2">
-        <v>7.6840308210435193E-2</v>
+        <v>0.55380021076731389</v>
       </c>
       <c r="F2">
-        <v>0.56909347001180088</v>
+        <v>5.2069901243045127</v>
       </c>
       <c r="G2">
-        <v>1.3835966345852908</v>
+        <v>0.90233107000859836</v>
       </c>
       <c r="H2">
-        <v>1.3835966345852908</v>
+        <v>3.5950311757801529E-2</v>
       </c>
       <c r="I2">
-        <v>0.93486135531192893</v>
+        <v>0.39865803893205637</v>
       </c>
       <c r="J2">
-        <v>0.81141379553349868</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K2">
-        <v>-0.1440981529635551</v>
+        <v>0.66919612440116083</v>
       </c>
       <c r="L2">
-        <v>-0.1440981529635551</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M2">
-        <v>0.44882435639434159</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N2">
-        <v>0.88736685281341054</v>
+        <v>1.8740334902820417</v>
       </c>
       <c r="O2">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P2">
-        <v>0.65062069492952934</v>
-      </c>
-      <c r="Q2">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R2">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S2">
-        <v>1.8202768481853899</v>
-      </c>
-      <c r="T2">
-        <v>2.0855522435959304</v>
-      </c>
-    </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+        <v>2.236604585542147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3">
+        <v>0.17504551654721476</v>
+      </c>
       <c r="C3">
-        <v>0.47706938845152019</v>
+        <v>0.51666425131942562</v>
       </c>
       <c r="D3">
-        <v>1.7152360583513795</v>
+        <v>7.8044040121024227E-2</v>
       </c>
       <c r="E3">
-        <v>7.6841380076949128E-2</v>
+        <v>0.55373133027852672</v>
       </c>
       <c r="F3">
-        <v>0.56922049430492239</v>
+        <v>5.2069823031916451</v>
       </c>
       <c r="G3">
-        <v>1.3835987756652983</v>
+        <v>0.90233121671133965</v>
       </c>
       <c r="H3">
-        <v>1.3835987756652983</v>
+        <v>3.5145358242910291E-2</v>
       </c>
       <c r="I3">
-        <v>0.9348612545115611</v>
+        <v>0.3986381369022623</v>
       </c>
       <c r="J3">
-        <v>0.81141350370122478</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K3">
-        <v>-0.14459931223411027</v>
+        <v>0.66920216559299561</v>
       </c>
       <c r="L3">
-        <v>-0.14459931223410938</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M3">
-        <v>0.44887324249718724</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N3">
-        <v>0.88746462501910184</v>
+        <v>1.8739414768222138</v>
       </c>
       <c r="O3">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P3">
-        <v>0.65055496384271727</v>
-      </c>
-      <c r="Q3">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R3">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S3">
-        <v>1.8202034207216466</v>
-      </c>
-      <c r="T3">
-        <v>2.0855522435959304</v>
-      </c>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+        <v>2.236604585542147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4">
+        <v>0.23742101328367729</v>
+      </c>
       <c r="C4">
-        <v>0.16574531691275543</v>
+        <v>0.64343205998437647</v>
       </c>
       <c r="D4">
-        <v>1.5110050957510452</v>
+        <v>7.8047279165270267E-2</v>
       </c>
       <c r="E4">
-        <v>7.6842315601118358E-2</v>
+        <v>0.55381237456997279</v>
       </c>
       <c r="F4">
-        <v>0.5692230193980079</v>
+        <v>5.2069927353447314</v>
       </c>
       <c r="G4">
-        <v>1.3835987561116341</v>
+        <v>0.90233102103260676</v>
       </c>
       <c r="H4">
-        <v>1.3835987561116341</v>
+        <v>3.5184763785053835E-2</v>
       </c>
       <c r="I4">
-        <v>0.93486125543213228</v>
+        <v>0.39866157237920624</v>
       </c>
       <c r="J4">
-        <v>0.81141350636641718</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K4">
-        <v>-0.14447763760018162</v>
+        <v>0.66917991115932751</v>
       </c>
       <c r="L4">
-        <v>-0.14447763760018073</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M4">
-        <v>0.44887251264420491</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N4">
-        <v>0.88746316531313707</v>
+        <v>1.8739854424246474</v>
       </c>
       <c r="O4">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P4">
-        <v>0.65056081478616545</v>
-      </c>
-      <c r="Q4">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R4">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S4">
-        <v>1.8202328159755159</v>
-      </c>
-      <c r="T4">
-        <v>2.0855522435959304</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+        <v>2.236604585542147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5">
+        <v>7.7736117464176288E-2</v>
+      </c>
       <c r="C5">
-        <v>0.41871503801586712</v>
+        <v>1.0194857916429236</v>
       </c>
       <c r="D5">
-        <v>9.3120758508951601E-2</v>
+        <v>7.8043061182739834E-2</v>
       </c>
       <c r="E5">
-        <v>7.6841689926634149E-2</v>
+        <v>0.55377471982520476</v>
       </c>
       <c r="F5">
-        <v>0.56919146183231883</v>
+        <v>5.2069896672110234</v>
       </c>
       <c r="G5">
-        <v>1.3835982448466801</v>
+        <v>0.90233107858242523</v>
       </c>
       <c r="H5">
-        <v>1.3835982448466801</v>
+        <v>3.3864795508526807E-2</v>
       </c>
       <c r="I5">
-        <v>0.93486127950208542</v>
+        <v>0.39865071544931457</v>
       </c>
       <c r="J5">
-        <v>0.81141357605256326</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K5">
-        <v>-0.14440488575362476</v>
+        <v>0.66916853181936187</v>
       </c>
       <c r="L5">
-        <v>-0.14440488575362609</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M5">
-        <v>0.44886105498409989</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N5">
-        <v>0.88744024999292737</v>
+        <v>1.8738728193710488</v>
       </c>
       <c r="O5">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P5">
-        <v>0.65057433119825869</v>
-      </c>
-      <c r="Q5">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R5">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S5">
-        <v>1.8202389314662095</v>
-      </c>
-      <c r="T5">
-        <v>2.0855522435959304</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+        <v>2.236604585542147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6">
+        <v>0.27774640017708824</v>
+      </c>
       <c r="C6">
-        <v>0.24023003378305877</v>
+        <v>1.0744682650996884</v>
       </c>
       <c r="D6">
-        <v>0.1264113322058372</v>
+        <v>7.8044900462877778E-2</v>
       </c>
       <c r="E6">
-        <v>7.6838026863112113E-2</v>
+        <v>0.55383515513332748</v>
       </c>
       <c r="F6">
-        <v>0.5692438812494387</v>
+        <v>5.2069978315740295</v>
       </c>
       <c r="G6">
-        <v>1.3835994267692562</v>
+        <v>0.90233092544124771</v>
       </c>
       <c r="H6">
-        <v>1.3835994267692562</v>
+        <v>3.361785049518215E-2</v>
       </c>
       <c r="I6">
-        <v>0.93486122385809722</v>
+        <v>0.39866817523671555</v>
       </c>
       <c r="J6">
-        <v>0.811413414954822</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K6">
-        <v>-0.14520280878910719</v>
+        <v>0.66914732489473117</v>
       </c>
       <c r="L6">
-        <v>-0.14520280878910674</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M6">
-        <v>0.44888879656102998</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N6">
-        <v>0.8874957331467872</v>
+        <v>1.8738860215715942</v>
       </c>
       <c r="O6">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P6">
-        <v>0.65051506478044341</v>
-      </c>
-      <c r="Q6">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R6">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S6">
-        <v>1.8200700672388581</v>
-      </c>
-      <c r="T6">
-        <v>2.0855522435959304</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+        <v>2.236604585542147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.22251895669397226</v>
+      </c>
       <c r="C7">
-        <v>0.1787179201439211</v>
+        <v>0.62659532717497279</v>
       </c>
       <c r="D7">
-        <v>0.9224835534318373</v>
+        <v>7.8048401034668202E-2</v>
       </c>
       <c r="E7">
-        <v>7.6840308210435193E-2</v>
+        <v>0.55380021076731389</v>
       </c>
       <c r="F7">
-        <v>0.56909347001180088</v>
+        <v>0.26833708373183129</v>
       </c>
       <c r="G7">
-        <v>0.19852991437237177</v>
+        <v>0.97200517840640077</v>
       </c>
       <c r="H7">
-        <v>0.19852991437237177</v>
+        <v>1.0394712496632197</v>
       </c>
       <c r="I7">
-        <v>0.90227951507800619</v>
+        <v>0.43244503323260181</v>
       </c>
       <c r="J7">
-        <v>0.87986232277226795</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K7">
-        <v>0.32033300035502549</v>
+        <v>0.66919612440116083</v>
       </c>
       <c r="L7">
-        <v>0.32033300035502532</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M7">
-        <v>0.21080501519968267</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N7">
-        <v>0.41132817042409131</v>
+        <v>1.8740334902820417</v>
       </c>
       <c r="O7">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P7">
-        <v>0.65062069492952934</v>
-      </c>
-      <c r="Q7">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R7">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S7">
-        <v>1.8202768481853899</v>
-      </c>
-      <c r="T7">
-        <v>2.0855522435959304</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+        <v>2.236604585542147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8">
+        <v>0.17504551654721476</v>
+      </c>
       <c r="C8">
-        <v>0.47706938845152019</v>
+        <v>0.51666425131942562</v>
       </c>
       <c r="D8">
-        <v>1.7152360583513795</v>
+        <v>7.8044040121024227E-2</v>
       </c>
       <c r="E8">
-        <v>7.6841380076949128E-2</v>
+        <v>0.55373133027852672</v>
       </c>
       <c r="F8">
-        <v>0.56922049430492239</v>
+        <v>0.26832046258518272</v>
       </c>
       <c r="G8">
-        <v>0.19855677678553504</v>
+        <v>0.97200691244192294</v>
       </c>
       <c r="H8">
-        <v>0.19855677678553504</v>
+        <v>1.0394680564102121</v>
       </c>
       <c r="I8">
-        <v>0.90226629284875792</v>
+        <v>0.43246114207497199</v>
       </c>
       <c r="J8">
-        <v>0.8798460673483316</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K8">
-        <v>0.32031281098985359</v>
+        <v>0.66920216559299561</v>
       </c>
       <c r="L8">
-        <v>0.32031281098985348</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M8">
-        <v>0.21079650991807072</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N8">
-        <v>0.41131115986086736</v>
+        <v>1.8739414768222138</v>
       </c>
       <c r="O8">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P8">
-        <v>0.65055496384271727</v>
-      </c>
-      <c r="Q8">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R8">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S8">
-        <v>1.8202034207216466</v>
-      </c>
-      <c r="T8">
-        <v>2.0855522435959304</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+        <v>2.236604585542147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9">
+        <v>0.23742101328367729</v>
+      </c>
       <c r="C9">
-        <v>0.16574531691275543</v>
+        <v>0.64343205998437647</v>
       </c>
       <c r="D9">
-        <v>1.5110050957510452</v>
+        <v>7.8047279165270267E-2</v>
       </c>
       <c r="E9">
-        <v>7.6842315601118358E-2</v>
+        <v>0.55381237456997279</v>
       </c>
       <c r="F9">
-        <v>0.5692230193980079</v>
+        <v>0.26832536372349547</v>
       </c>
       <c r="G9">
-        <v>0.19856146557493445</v>
+        <v>0.97200640112052539</v>
       </c>
       <c r="H9">
-        <v>0.19856146557493445</v>
+        <v>1.0394038832495018</v>
       </c>
       <c r="I9">
-        <v>0.90226398493070303</v>
+        <v>0.43242346979962409</v>
       </c>
       <c r="J9">
-        <v>0.87984322999120468</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K9">
-        <v>0.32032832490192831</v>
+        <v>0.66917991115932751</v>
       </c>
       <c r="L9">
-        <v>0.32032832490192831</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M9">
-        <v>0.2108092215524433</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N9">
-        <v>0.41133658312961252</v>
+        <v>1.8739854424246474</v>
       </c>
       <c r="O9">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P9">
-        <v>0.65056081478616545</v>
-      </c>
-      <c r="Q9">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R9">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S9">
-        <v>1.8202328159755159</v>
-      </c>
-      <c r="T9">
-        <v>2.0855522435959304</v>
-      </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+        <v>2.236604585542147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10">
+        <v>7.7736117464176288E-2</v>
+      </c>
       <c r="C10">
-        <v>0.41871503801586712</v>
+        <v>1.0194857916429236</v>
       </c>
       <c r="D10">
-        <v>9.3120758508951601E-2</v>
+        <v>7.8043061182739834E-2</v>
       </c>
       <c r="E10">
-        <v>7.6841689926634149E-2</v>
+        <v>0.55377471982520476</v>
       </c>
       <c r="F10">
-        <v>0.56919146183231883</v>
+        <v>0.26830207178530679</v>
       </c>
       <c r="G10">
-        <v>0.19855315833231693</v>
+        <v>0.97200883110018044</v>
       </c>
       <c r="H10">
-        <v>0.19855315833231693</v>
+        <v>1.0393362844726817</v>
       </c>
       <c r="I10">
-        <v>0.90226807392544983</v>
+        <v>0.43241414044950749</v>
       </c>
       <c r="J10">
-        <v>0.87984825700607749</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K10">
-        <v>0.32032708362590551</v>
+        <v>0.66916853181936187</v>
       </c>
       <c r="L10">
-        <v>0.32032708362590545</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M10">
-        <v>0.21080626488630982</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N10">
-        <v>0.41133066979734556</v>
+        <v>1.8738728193710488</v>
       </c>
       <c r="O10">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P10">
-        <v>0.65057433119825869</v>
-      </c>
-      <c r="Q10">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R10">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S10">
-        <v>1.8202389314662095</v>
-      </c>
-      <c r="T10">
-        <v>2.0855522435959304</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+        <v>2.236604585542147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11">
+        <v>0.27774640017708824</v>
+      </c>
       <c r="C11">
-        <v>0.24023003378305877</v>
+        <v>1.0744682650996884</v>
       </c>
       <c r="D11">
-        <v>0.1264113322058372</v>
+        <v>7.8044900462877778E-2</v>
       </c>
       <c r="E11">
-        <v>7.6838026863112113E-2</v>
+        <v>0.55383515513332748</v>
       </c>
       <c r="F11">
-        <v>0.5692438812494387</v>
+        <v>0.26830126632153045</v>
       </c>
       <c r="G11">
-        <v>0.19854558787799462</v>
+        <v>0.97200891513185583</v>
       </c>
       <c r="H11">
-        <v>0.19854558787799462</v>
+        <v>1.0392677520411793</v>
       </c>
       <c r="I11">
-        <v>0.90227180025792619</v>
+        <v>0.43238030876428446</v>
       </c>
       <c r="J11">
-        <v>0.87985283816353532</v>
+        <v>0.50740852334869446</v>
       </c>
       <c r="K11">
-        <v>0.3202472846706978</v>
+        <v>0.66914732489473117</v>
       </c>
       <c r="L11">
-        <v>0.32024728467069769</v>
+        <v>0.79561441779616027</v>
       </c>
       <c r="M11">
-        <v>0.21074494455860987</v>
+        <v>1.4347363383027343</v>
       </c>
       <c r="N11">
-        <v>0.41120802914194565</v>
+        <v>1.8738860215715942</v>
       </c>
       <c r="O11">
-        <v>0.52816575831845591</v>
-      </c>
-      <c r="P11">
-        <v>0.65051506478044341</v>
-      </c>
-      <c r="Q11">
-        <v>0.79269081998431334</v>
-      </c>
-      <c r="R11">
-        <v>1.4041572445570545</v>
-      </c>
-      <c r="S11">
-        <v>1.8200700672388581</v>
-      </c>
-      <c r="T11">
-        <v>2.0855522435959304</v>
+        <v>2.236604585542147</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>